--- a/trunk/XNA/PvZSounds.xlsx
+++ b/trunk/XNA/PvZSounds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Windows Phone\XNA\PlantsVsZombies\XNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HK7\plants-vs-zombies-gameonmobile-uit-term7\XNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>BulletCollide</t>
   </si>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +658,9 @@
       <c r="D9" t="s">
         <v>55</v>
       </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -672,6 +675,9 @@
       <c r="D10" t="s">
         <v>55</v>
       </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -683,6 +689,9 @@
       <c r="D11" t="s">
         <v>55</v>
       </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -694,6 +703,9 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -705,6 +717,9 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -728,7 +743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -741,8 +756,11 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -755,8 +773,11 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -766,8 +787,11 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -778,7 +802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -792,7 +816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -806,7 +830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -820,7 +844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -834,7 +858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -848,7 +872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -862,7 +886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -873,7 +897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>

--- a/trunk/XNA/PvZSounds.xlsx
+++ b/trunk/XNA/PvZSounds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HK7\plants-vs-zombies-gameonmobile-uit-term7\XNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Windows Phone\XNA\PlantsVsZombies\XNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>BulletCollide</t>
   </si>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +815,9 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -829,6 +832,9 @@
       <c r="D24" t="s">
         <v>55</v>
       </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -843,6 +849,9 @@
       <c r="D26" t="s">
         <v>55</v>
       </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -857,6 +866,9 @@
       <c r="D27" t="s">
         <v>55</v>
       </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -871,6 +883,9 @@
       <c r="D28" t="s">
         <v>55</v>
       </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -885,6 +900,9 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -896,6 +914,9 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -906,6 +927,9 @@
       </c>
       <c r="D32" t="s">
         <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
